--- a/resdataTemp-15.xlsx
+++ b/resdataTemp-15.xlsx
@@ -525,7 +525,7 @@
         <v>945.3090876972303</v>
       </c>
       <c r="E3" t="n">
-        <v>459.323635350317</v>
+        <v>459.1320746707814</v>
       </c>
       <c r="F3" t="n">
         <v>0.7803</v>
@@ -559,7 +559,7 @@
         <v>1531.123730073688</v>
       </c>
       <c r="E4" t="n">
-        <v>9.747812722737052</v>
+        <v>9.747765215802312</v>
       </c>
       <c r="F4" t="n">
         <v>0.710320591016015</v>
@@ -584,31 +584,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>536.7487086451479</v>
+        <v>536.751218812549</v>
       </c>
       <c r="C5" t="n">
         <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>957.4829504372912</v>
+        <v>957.4878659429453</v>
       </c>
       <c r="E5" t="n">
-        <v>469.0714480730541</v>
+        <v>468.8798398865837</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7788113522785389</v>
+        <v>0.7788107515011535</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1212805994809907</v>
+        <v>0.1212796230773077</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03138568847890532</v>
+        <v>0.03138620734750775</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06197678360228296</v>
+        <v>0.06197782352146122</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006545576159282197</v>
+        <v>0.006545594552569887</v>
       </c>
     </row>
     <row r="6">
@@ -618,31 +618,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>463.459132364424</v>
+        <v>463.4595297982058</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>873.7023291611799</v>
+        <v>873.7047453729181</v>
       </c>
       <c r="E6" t="n">
-        <v>469.0714480730541</v>
+        <v>468.8798398865837</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7788113522785389</v>
+        <v>0.7788107515011535</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1212805994809907</v>
+        <v>0.1212796230773077</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03138568847890532</v>
+        <v>0.03138620734750775</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06197678360228296</v>
+        <v>0.06197782352146122</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006545576159282197</v>
+        <v>0.006545594552569887</v>
       </c>
     </row>
     <row r="7">
@@ -652,31 +652,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>294.8751437042634</v>
+        <v>294.8468066992266</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>686.3812598881404</v>
+        <v>686.3522363651664</v>
       </c>
       <c r="E7" t="n">
-        <v>469.0714480730541</v>
+        <v>468.8798398865837</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7788113522785389</v>
+        <v>0.7788107515011535</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1212805994809907</v>
+        <v>0.1212796230773077</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03138568847890532</v>
+        <v>0.03138620734750775</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06197678360228296</v>
+        <v>0.06197782352146122</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006545576159282197</v>
+        <v>0.006545594552569887</v>
       </c>
     </row>
     <row r="8">
@@ -686,31 +686,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>229.0829471712748</v>
+        <v>229.0884378181904</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>615.2251670685274</v>
+        <v>615.2328658910875</v>
       </c>
       <c r="E8" t="n">
-        <v>469.0714480730541</v>
+        <v>468.8798398865837</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7788113522785389</v>
+        <v>0.7788107515011535</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1212805994809907</v>
+        <v>0.1212796230773077</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03138568847890532</v>
+        <v>0.03138620734750775</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06197678360228296</v>
+        <v>0.06197782352146122</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006545576159282197</v>
+        <v>0.006545594552569887</v>
       </c>
     </row>
     <row r="9">
@@ -720,31 +720,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>228.1609478565483</v>
+        <v>228.1664046601098</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>614.2350088600847</v>
+        <v>614.2426696470109</v>
       </c>
       <c r="E9" t="n">
-        <v>469.0714480730541</v>
+        <v>468.8798398865837</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7788113522785389</v>
+        <v>0.7788107515011535</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1212805994809907</v>
+        <v>0.1212796230773077</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03138568847890532</v>
+        <v>0.03138620734750775</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06197678360228296</v>
+        <v>0.06197782352146122</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006545576159282197</v>
+        <v>0.006545594552569887</v>
       </c>
     </row>
     <row r="10">
@@ -754,31 +754,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>169.134628762969</v>
+        <v>169.1208768393832</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>551.2088951820418</v>
+        <v>551.1960537989928</v>
       </c>
       <c r="E10" t="n">
-        <v>469.0714480730541</v>
+        <v>468.8798398865837</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7788113522785389</v>
+        <v>0.7788107515011535</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1212805994809907</v>
+        <v>0.1212796230773077</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03138568847890532</v>
+        <v>0.03138620734750775</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06197678360228296</v>
+        <v>0.06197782352146122</v>
       </c>
       <c r="J10" t="n">
-        <v>0.006545576159282197</v>
+        <v>0.006545594552569887</v>
       </c>
     </row>
     <row r="11">
@@ -788,31 +788,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>105.4673068605601</v>
+        <v>105.4608040581873</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>483.9251165470183</v>
+        <v>483.9200015010628</v>
       </c>
       <c r="E11" t="n">
-        <v>469.0714480730541</v>
+        <v>468.8798398865837</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7788113522785389</v>
+        <v>0.7788107515011535</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1212805994809907</v>
+        <v>0.1212796230773077</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03138568847890532</v>
+        <v>0.03138620734750775</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06197678360228296</v>
+        <v>0.06197782352146122</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006545576159282197</v>
+        <v>0.006545594552569887</v>
       </c>
     </row>
     <row r="12">
@@ -831,7 +831,7 @@
         <v>288.39</v>
       </c>
       <c r="E12" t="n">
-        <v>9.240039831378544</v>
+        <v>9.23999479912549</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -855,7 +855,7 @@
         <v>881.5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5077728913585142</v>
+        <v>0.5077704166768293</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -911,16 +911,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7235993658678754</v>
+        <v>0.7243203747183297</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7634952323251094</v>
+        <v>0.7643423465064867</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9477457556142987</v>
+        <v>0.947638683148877</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7078464056415233</v>
+        <v>0.7068668294281824</v>
       </c>
     </row>
     <row r="3">
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>72.45805844495865</v>
+        <v>72.43344929443737</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -993,12 +993,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33.10393281063228</v>
+        <v>33.09072535169722</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8492780473660967</v>
+        <v>0.8492777146379797</v>
       </c>
     </row>
     <row r="9">
@@ -1008,12 +1008,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8.936973862711211</v>
+        <v>8.934231288363438</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.837204145165644</v>
+        <v>0.8372041613850038</v>
       </c>
     </row>
     <row r="10">
@@ -1023,12 +1023,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.266409548870033</v>
+        <v>5.264607590475306</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.8149514311277775</v>
+        <v>0.8149514167385284</v>
       </c>
     </row>
     <row r="11">
@@ -1038,12 +1038,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>25.15074222274513</v>
+        <v>25.14388506390141</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.8369103320048642</v>
+        <v>0.8369627537821616</v>
       </c>
     </row>
     <row r="12">
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1739244831730784</v>
+        <v>0.1747523120126597</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1800795267959422</v>
+        <v>0.1809456002454761</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9658204142781959</v>
+        <v>0.9657726508717849</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2927972913808787</v>
+        <v>0.2913129571004731</v>
       </c>
     </row>
     <row r="13">
@@ -1134,10 +1134,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40845.17173793153</v>
+        <v>40846.64395417929</v>
       </c>
       <c r="C2" t="n">
-        <v>41257.74923023387</v>
+        <v>41259.23631735282</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -1150,10 +1150,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>89894.15478766972</v>
+        <v>89903.86188587022</v>
       </c>
       <c r="C3" t="n">
-        <v>90802.17655320173</v>
+        <v>90811.98170289921</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -1166,10 +1166,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38575.24609858831</v>
+        <v>38571.58823361721</v>
       </c>
       <c r="C4" t="n">
-        <v>38964.8950490791</v>
+        <v>38961.20023597698</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -1182,10 +1182,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>509.3008474197522</v>
+        <v>509.2981188587931</v>
       </c>
       <c r="C5" t="n">
-        <v>514.4453004239922</v>
+        <v>514.4425443018113</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32741.15944471524</v>
+        <v>32740.59902335926</v>
       </c>
       <c r="C6" t="n">
-        <v>33071.87822698509</v>
+        <v>33071.31214480733</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -1214,10 +1214,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38723.56670180665</v>
+        <v>38721.17980284373</v>
       </c>
       <c r="C7" t="n">
-        <v>39114.71384020873</v>
+        <v>39112.30283115528</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15029.1152532387</v>
+        <v>15029.24244801655</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -1498,16 +1498,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>511.5121897584705</v>
+        <v>511.5297662148624</v>
       </c>
       <c r="C3" t="n">
-        <v>6.758413246477323</v>
+        <v>6.755771205865644</v>
       </c>
       <c r="D3" t="n">
-        <v>3441.972107240199</v>
+        <v>3442.043950924499</v>
       </c>
       <c r="E3" t="n">
-        <v>57.99237222475507</v>
+        <v>57.96884374429705</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -1519,16 +1519,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>286.9615825248745</v>
+        <v>286.9349703512902</v>
       </c>
       <c r="C4" t="n">
-        <v>7.117933438806884</v>
+        <v>7.115145522208794</v>
       </c>
       <c r="D4" t="n">
-        <v>2771.083287084866</v>
+        <v>2771.120155681487</v>
       </c>
       <c r="E4" t="n">
-        <v>57.99237222475507</v>
+        <v>57.96884374429705</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -1540,16 +1540,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>286.4785315542026</v>
+        <v>286.4384760429569</v>
       </c>
       <c r="C5" t="n">
-        <v>7.117933438806884</v>
+        <v>7.115145522208794</v>
       </c>
       <c r="D5" t="n">
-        <v>1271.086540669571</v>
+        <v>1270.871755187547</v>
       </c>
       <c r="E5" t="n">
-        <v>57.99237222475507</v>
+        <v>57.96884374429705</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -1561,16 +1561,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165.092231843877</v>
+        <v>165.1091404156895</v>
       </c>
       <c r="C6" t="n">
-        <v>7.117933438806884</v>
+        <v>7.115145522208794</v>
       </c>
       <c r="D6" t="n">
-        <v>701.2938305361096</v>
+        <v>701.3654036457772</v>
       </c>
       <c r="E6" t="n">
-        <v>57.99237222475507</v>
+        <v>57.96884374429705</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -1582,16 +1582,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>158.5359856284268</v>
+        <v>158.5217220003794</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5955531090045078</v>
+        <v>0.5953354377974781</v>
       </c>
       <c r="D7" t="n">
-        <v>669.1163935519528</v>
+        <v>669.0544906198235</v>
       </c>
       <c r="E7" t="n">
-        <v>57.99237222475507</v>
+        <v>57.96884374429705</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -1603,16 +1603,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>171.1143151273957</v>
+        <v>171.0979310380309</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5893044545242372</v>
+        <v>0.5891582686097667</v>
       </c>
       <c r="D8" t="n">
-        <v>2786.369327736946</v>
+        <v>2786.347058384867</v>
       </c>
       <c r="E8" t="n">
-        <v>15.04949361876156</v>
+        <v>15.04974707560899</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -1624,16 +1624,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>158.5359855049014</v>
+        <v>158.5217218768825</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5955531090045078</v>
+        <v>0.5953354377974781</v>
       </c>
       <c r="D9" t="n">
-        <v>2755.819208499575</v>
+        <v>2755.803293952604</v>
       </c>
       <c r="E9" t="n">
-        <v>15.04949361876156</v>
+        <v>15.04974707560899</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -1645,16 +1645,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>158.5359856284268</v>
+        <v>158.5217220003794</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5955531090045078</v>
+        <v>0.5953354377974781</v>
       </c>
       <c r="D10" t="n">
-        <v>698.3333268112938</v>
+        <v>698.2952395586043</v>
       </c>
       <c r="E10" t="n">
-        <v>73.04186584351663</v>
+        <v>73.01859081990604</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -1666,16 +1666,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>158.5359856284268</v>
+        <v>158.5217220003794</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5955531090045078</v>
+        <v>0.5953354377974781</v>
       </c>
       <c r="D11" t="n">
-        <v>698.3333268112938</v>
+        <v>698.2952395586043</v>
       </c>
       <c r="E11" t="n">
-        <v>73.04275858448452</v>
+        <v>73.01859081990604</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -1687,16 +1687,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>64.49464014166983</v>
+        <v>64.50741137150686</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5955531090045078</v>
+        <v>0.5953354377974781</v>
       </c>
       <c r="D12" t="n">
-        <v>270.556990820236</v>
+        <v>270.6104481555252</v>
       </c>
       <c r="E12" t="n">
-        <v>73.04186584351663</v>
+        <v>73.01859081990604</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -1708,16 +1708,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>64.49549292909535</v>
+        <v>64.50682532614371</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>270.5605603832887</v>
+        <v>270.6079951070127</v>
       </c>
       <c r="E13" t="n">
-        <v>73.03835541308433</v>
+        <v>73.01740820253715</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -1729,16 +1729,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>64.04338400173475</v>
+        <v>64.05610144820923</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>268.6681925000725</v>
+        <v>268.7214218271195</v>
       </c>
       <c r="E14" t="n">
-        <v>64.52285295028933</v>
+        <v>64.50249125040934</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -1750,16 +1750,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>102.8136209677554</v>
+        <v>102.8199885848094</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1120338794682059</v>
+        <v>0.1120589065148448</v>
       </c>
       <c r="D15" t="n">
-        <v>431.0400395695035</v>
+        <v>431.066923172864</v>
       </c>
       <c r="E15" t="n">
-        <v>60.09388610654995</v>
+        <v>60.09201980439628</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -1771,16 +1771,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>67.21512732139246</v>
+        <v>67.21617636971445</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1120362447307952</v>
+        <v>0.1120627480008885</v>
       </c>
       <c r="D16" t="n">
-        <v>281.464784265119</v>
+        <v>281.4692000060168</v>
       </c>
       <c r="E16" t="n">
-        <v>60.09441048433656</v>
+        <v>60.09321719149607</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -1801,7 +1801,7 @@
         <v>192.602</v>
       </c>
       <c r="E17" t="n">
-        <v>629.9209910501309</v>
+        <v>629.9278610817611</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -1822,7 +1822,7 @@
         <v>192.602</v>
       </c>
       <c r="E18" t="n">
-        <v>79.35172279626774</v>
+        <v>79.35258822042928</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -1834,16 +1834,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>84.68410156470469</v>
+        <v>84.68758451197498</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>354.5723332514186</v>
+        <v>354.5869163516392</v>
       </c>
       <c r="E19" t="n">
-        <v>79.35172279626774</v>
+        <v>79.35258822042928</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -1855,16 +1855,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>116.0577795366066</v>
+        <v>116.056909257353</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1750921131254041</v>
+        <v>0.1750833928924935</v>
       </c>
       <c r="D20" t="n">
-        <v>2697.216876050063</v>
+        <v>2697.282733683695</v>
       </c>
       <c r="E20" t="n">
-        <v>13.90595890423653</v>
+        <v>13.89855597884343</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1876,16 +1876,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>114.4807707805337</v>
+        <v>114.4792482013948</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1663375074691339</v>
+        <v>0.1663292232478688</v>
       </c>
       <c r="D21" t="n">
-        <v>480.3922497456741</v>
+        <v>480.3857959879207</v>
       </c>
       <c r="E21" t="n">
-        <v>13.90595890423653</v>
+        <v>13.89855597884343</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -1897,16 +1897,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>99.86962756376704</v>
+        <v>99.87553645487581</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>418.1541306094926</v>
+        <v>418.1788711365651</v>
       </c>
       <c r="E22" t="n">
-        <v>629.9209910501309</v>
+        <v>629.9278610817611</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -1927,7 +1927,7 @@
         <v>466.60274855267</v>
       </c>
       <c r="E23" t="n">
-        <v>629.9209910501309</v>
+        <v>629.9278610817611</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -1939,7 +1939,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>61.27401774652145</v>
+        <v>61.27445649657143</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -1948,7 +1948,7 @@
         <v>202.3831279625776</v>
       </c>
       <c r="E24" t="n">
-        <v>629.9209910501309</v>
+        <v>629.9278610817611</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -1960,16 +1960,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>104.2823967267036</v>
+        <v>104.2888214348713</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1179303994402167</v>
+        <v>0.1179567436998367</v>
       </c>
       <c r="D25" t="n">
-        <v>2642.344833049367</v>
+        <v>2642.44435564166</v>
       </c>
       <c r="E25" t="n">
-        <v>46.18861423388631</v>
+        <v>46.19458097709901</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -1981,19 +1981,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>508.7239401235845</v>
+        <v>508.7426497348069</v>
       </c>
       <c r="C26" t="n">
-        <v>6.165476078586368</v>
+        <v>6.163048746571103</v>
       </c>
       <c r="D26" t="n">
-        <v>3441.972107240199</v>
+        <v>3442.043950924499</v>
       </c>
       <c r="E26" t="n">
-        <v>49.47342892840412</v>
+        <v>49.45271597123114</v>
       </c>
       <c r="F26" t="n">
-        <v>6.894905467039999</v>
+        <v>6.895170689389071</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -2006,19 +2006,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>199.3609726590942</v>
+        <v>199.3896671681448</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4365083238364063</v>
+        <v>0.4363981824346403</v>
       </c>
       <c r="D27" t="n">
-        <v>2857.733199103401</v>
+        <v>2857.79949197778</v>
       </c>
       <c r="E27" t="n">
-        <v>49.47342892840412</v>
+        <v>49.45271597123114</v>
       </c>
       <c r="F27" t="n">
-        <v>7.126133126123772</v>
+        <v>7.1263871653899</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -2031,19 +2031,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>168.3380821402724</v>
+        <v>168.3247855448574</v>
       </c>
       <c r="C28" t="n">
-        <v>0.50096423451949</v>
+        <v>0.5008562642113039</v>
       </c>
       <c r="D28" t="n">
-        <v>2786.369327736946</v>
+        <v>2786.347058384867</v>
       </c>
       <c r="E28" t="n">
-        <v>15.04949361876156</v>
+        <v>15.04974707560899</v>
       </c>
       <c r="F28" t="n">
-        <v>6.908148566506275</v>
+        <v>6.908193935236254</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -2056,19 +2056,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>191.5181180416485</v>
+        <v>191.5340884260692</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4365083238364063</v>
+        <v>0.4363981824346403</v>
       </c>
       <c r="D29" t="n">
-        <v>2841.088104858723</v>
+        <v>2841.128174283614</v>
       </c>
       <c r="E29" t="n">
-        <v>64.52292254716568</v>
+        <v>64.50246304684013</v>
       </c>
       <c r="F29" t="n">
-        <v>7.09061022697191</v>
+        <v>7.090809993925387</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -2081,22 +2081,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>116.0575535628748</v>
+        <v>116.0565568506998</v>
       </c>
       <c r="C30" t="n">
-        <v>0.175100138461024</v>
+        <v>0.1750944824003625</v>
       </c>
       <c r="D30" t="n">
-        <v>2697.21590806134</v>
+        <v>2697.281223908182</v>
       </c>
       <c r="E30" t="n">
-        <v>64.52292254716568</v>
+        <v>64.50246304684013</v>
       </c>
       <c r="F30" t="n">
-        <v>7.163752654182074</v>
+        <v>7.163935029626329</v>
       </c>
       <c r="G30" t="n">
-        <v>99.8676185013728</v>
+        <v>99.87063667482163</v>
       </c>
     </row>
     <row r="31">
@@ -2106,22 +2106,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>104.2819930789104</v>
+        <v>104.288098669642</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1179287444607331</v>
+        <v>0.1179537797873181</v>
       </c>
       <c r="D31" t="n">
-        <v>2642.342966834135</v>
+        <v>2642.440990509111</v>
       </c>
       <c r="E31" t="n">
-        <v>50.61765067450204</v>
+        <v>50.60502421954286</v>
       </c>
       <c r="F31" t="n">
-        <v>7.197710040374491</v>
+        <v>7.197875170701391</v>
       </c>
       <c r="G31" t="n">
-        <v>98.22131981048234</v>
+        <v>98.22525063645614</v>
       </c>
     </row>
     <row r="32">
@@ -2131,19 +2131,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>76.20902213274849</v>
+        <v>76.25739569245133</v>
       </c>
       <c r="C32" t="n">
-        <v>0.008715627480650539</v>
+        <v>0.008681055070806083</v>
       </c>
       <c r="D32" t="n">
-        <v>2642.342966834135</v>
+        <v>2642.440990509111</v>
       </c>
       <c r="E32" t="n">
-        <v>4.428442465952777</v>
+        <v>4.409274058913269</v>
       </c>
       <c r="F32" t="n">
-        <v>8.387274712493905</v>
+        <v>8.389386375457653</v>
       </c>
       <c r="G32" t="n">
         <v>100</v>
@@ -2156,19 +2156,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>72.42466461384686</v>
+        <v>72.56804807937169</v>
       </c>
       <c r="C33" t="n">
-        <v>0.002409722499889778</v>
+        <v>0.002408551657106165</v>
       </c>
       <c r="D33" t="n">
-        <v>2636.286840660224</v>
+        <v>2636.55743296335</v>
       </c>
       <c r="E33" t="n">
-        <v>4.428442465952777</v>
+        <v>4.409274058913269</v>
       </c>
       <c r="F33" t="n">
-        <v>8.962567025059373</v>
+        <v>8.963574066167739</v>
       </c>
       <c r="G33" t="n">
         <v>100</v>
@@ -2181,16 +2181,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>20.47956162619903</v>
+        <v>20.4716872197597</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002409722499889778</v>
+        <v>0.002408551657106165</v>
       </c>
       <c r="D34" t="n">
-        <v>85.92079025924771</v>
+        <v>85.8878423780798</v>
       </c>
       <c r="E34" t="n">
-        <v>4.428442465952777</v>
+        <v>4.409274058913269</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -2202,16 +2202,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>22.49914793070957</v>
+        <v>22.49126705863972</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>95.01715283058965</v>
+        <v>94.98420509301262</v>
       </c>
       <c r="E35" t="n">
-        <v>4.428442465952777</v>
+        <v>4.409274058913269</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -2307,16 +2307,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>496.5183587647314</v>
+        <v>496.5318908036865</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3460.561772676899</v>
+        <v>3460.591613212948</v>
       </c>
       <c r="E40" t="n">
-        <v>7.232540890534362</v>
+        <v>7.232602101152307</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -2337,7 +2337,7 @@
         <v>284.8992297912401</v>
       </c>
       <c r="E41" t="n">
-        <v>8.515502462794998</v>
+        <v>8.514916952127825</v>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -2349,16 +2349,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>511.5183587647314</v>
+        <v>511.5318908036865</v>
       </c>
       <c r="C42" t="n">
-        <v>6.758448138995359</v>
+        <v>6.755908374846522</v>
       </c>
       <c r="D42" t="n">
-        <v>3441.985978161751</v>
+        <v>3442.046831326827</v>
       </c>
       <c r="E42" t="n">
-        <v>8.515502462794998</v>
+        <v>8.514916952127825</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -2460,7 +2460,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>8.52030399634511</v>
+        <v>8.520376105591444</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -2503,7 +2503,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>8.52030399634511</v>
+        <v>8.520376105591444</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -2546,7 +2546,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>8.52030399634511</v>
+        <v>8.520376105591444</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -2589,7 +2589,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>8.52030399634511</v>
+        <v>8.520376105591444</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -2632,7 +2632,7 @@
         <v>1348.041621038311</v>
       </c>
       <c r="E6" t="n">
-        <v>3.389001204531871</v>
+        <v>3.389029886410216</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -2647,10 +2647,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944177</v>
+        <v>0.05094889585944181</v>
       </c>
       <c r="K6" t="n">
-        <v>0.09767435453489637</v>
+        <v>0.0976743545348964</v>
       </c>
       <c r="L6" t="n">
         <v>0.6806996788173056</v>
@@ -2878,16 +2878,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.866045902823819</v>
+        <v>1.873026268437083</v>
       </c>
       <c r="C2" t="n">
-        <v>2.081087458616733</v>
+        <v>2.089270256502325</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8966686599822918</v>
+        <v>0.8964978382321591</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2226445823594297</v>
+        <v>0.2216342576084699</v>
       </c>
     </row>
     <row r="3">
@@ -2920,11 +2920,11 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>135.5143451061763</v>
+        <v>135.4204636907776</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>32.17745160989267</v>
+        <v>32.16908295898296</v>
       </c>
     </row>
     <row r="6">
@@ -2935,7 +2935,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>6.237418586733698</v>
+        <v>6.237219391067883</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>40.99171528641132</v>
+        <v>40.97209144407567</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -2960,12 +2960,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>28.90430209891433</v>
+        <v>28.89247528605773</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8493752010433835</v>
+        <v>0.8493749832076161</v>
       </c>
     </row>
     <row r="9">
@@ -2975,12 +2975,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9.283054610648174</v>
+        <v>9.278482600991936</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.8348170989110102</v>
+        <v>0.8348260443455973</v>
       </c>
     </row>
     <row r="10">
@@ -2990,12 +2990,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.7775393705211</v>
+        <v>2.775191339365357</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.8106560781767055</v>
+        <v>0.8106400462235114</v>
       </c>
     </row>
     <row r="11">
@@ -3005,12 +3005,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0268192063277167</v>
+        <v>0.02594221766064962</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.03314160167957137</v>
+        <v>0.03227819794334404</v>
       </c>
     </row>
     <row r="12">
@@ -3020,13 +3020,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04028271829663405</v>
+        <v>0.04010835614941917</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04513358925451429</v>
+        <v>0.04493862287218765</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8925219323788868</v>
+        <v>0.8925141356354754</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -3097,10 +3097,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>38906.10636902115</v>
+        <v>38891.37399649197</v>
       </c>
       <c r="C2" t="n">
-        <v>39299.09734244561</v>
+        <v>39284.2161580727</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -3113,10 +3113,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>86988.29556631252</v>
+        <v>86967.35628164529</v>
       </c>
       <c r="C3" t="n">
-        <v>87866.9652184975</v>
+        <v>87845.81442590433</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -3129,10 +3129,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33043.51858313537</v>
+        <v>33012.97465031353</v>
       </c>
       <c r="C4" t="n">
-        <v>33377.29149811653</v>
+        <v>33346.43904072074</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -3145,10 +3145,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>459.810395209092</v>
+        <v>459.6402258151566</v>
       </c>
       <c r="C5" t="n">
-        <v>464.4549446556484</v>
+        <v>464.283056378946</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -3161,10 +3161,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29268.11290528272</v>
+        <v>29265.67427276756</v>
       </c>
       <c r="C6" t="n">
-        <v>29563.75040937648</v>
+        <v>29561.28714420966</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -3177,10 +3177,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>31245.29048139575</v>
+        <v>31228.9407833583</v>
       </c>
       <c r="C7" t="n">
-        <v>31560.89947615732</v>
+        <v>31544.38462965485</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -3193,7 +3193,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>30.51880142977545</v>
+        <v>30.50354952601239</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>101.7951177000853</v>
+        <v>101.8106554365025</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.89890159154479</v>
+        <v>8.900155851312954</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -3235,7 +3235,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24559.31455350675</v>
+        <v>24559.73822922542</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -3247,7 +3247,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2324.865427499786</v>
+        <v>2323.111403459647</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16182.61761491873</v>
+        <v>16182.53874732239</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5604.16095021513</v>
+        <v>5604.208379487915</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -3283,7 +3283,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4048.752636127797</v>
+        <v>4048.786901630684</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -3295,7 +3295,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15029.1152532387</v>
+        <v>15029.24244801655</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -3307,7 +3307,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>27006.89426708142</v>
+        <v>27005.34913259479</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -3757,16 +3757,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>503.4991215791298</v>
+        <v>503.5015964595506</v>
       </c>
       <c r="C3" t="n">
-        <v>7.73975470452179</v>
+        <v>7.73712548523289</v>
       </c>
       <c r="D3" t="n">
-        <v>3411.218516165521</v>
+        <v>3411.254881532883</v>
       </c>
       <c r="E3" t="n">
-        <v>62.45539956399586</v>
+        <v>62.45047001573596</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -3778,16 +3778,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>295.8716832368293</v>
+        <v>295.8507805871548</v>
       </c>
       <c r="C4" t="n">
-        <v>8.099463109554582</v>
+        <v>8.097045553361987</v>
       </c>
       <c r="D4" t="n">
-        <v>2757.195794228918</v>
+        <v>2757.232155748033</v>
       </c>
       <c r="E4" t="n">
-        <v>62.45539956399586</v>
+        <v>62.45047001573596</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -3799,16 +3799,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>295.1226139485333</v>
+        <v>295.1060933709863</v>
       </c>
       <c r="C5" t="n">
-        <v>8.099463109554582</v>
+        <v>8.097045553361987</v>
       </c>
       <c r="D5" t="n">
-        <v>1317.853655776518</v>
+        <v>1317.763410750473</v>
       </c>
       <c r="E5" t="n">
-        <v>62.45539956399586</v>
+        <v>62.45047001573596</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -3820,16 +3820,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>164.7080570120997</v>
+        <v>164.698456154525</v>
       </c>
       <c r="C6" t="n">
-        <v>8.099463109554582</v>
+        <v>8.097045553361987</v>
       </c>
       <c r="D6" t="n">
-        <v>700.1981498886926</v>
+        <v>700.1552465668876</v>
       </c>
       <c r="E6" t="n">
-        <v>62.45539956399586</v>
+        <v>62.45047001573596</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -3841,16 +3841,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>163.0208697201965</v>
+        <v>163.0081549266089</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6672101271175629</v>
+        <v>0.6669977194837133</v>
       </c>
       <c r="D7" t="n">
-        <v>688.6122922859976</v>
+        <v>688.5569291397198</v>
       </c>
       <c r="E7" t="n">
-        <v>62.45539956399586</v>
+        <v>62.45047001573596</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -3862,16 +3862,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>176.4966328125071</v>
+        <v>176.4835876809718</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6610768049287021</v>
+        <v>0.6608883107824808</v>
       </c>
       <c r="D8" t="n">
-        <v>2793.814594955338</v>
+        <v>2793.798895510325</v>
       </c>
       <c r="E8" t="n">
-        <v>15.38723666163395</v>
+        <v>15.38614389244346</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -3883,16 +3883,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>163.020869587504</v>
+        <v>163.0081547939429</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6672101271175629</v>
+        <v>0.6669977194837133</v>
       </c>
       <c r="D9" t="n">
-        <v>2760.716697104487</v>
+        <v>2760.70311649231</v>
       </c>
       <c r="E9" t="n">
-        <v>15.38723666163395</v>
+        <v>15.38614389244346</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -3904,16 +3904,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>160.4871936735591</v>
+        <v>160.4723596478491</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6672101271175629</v>
+        <v>0.6669977194837133</v>
       </c>
       <c r="D10" t="n">
-        <v>677.6144475300134</v>
+        <v>677.5499939306133</v>
       </c>
       <c r="E10" t="n">
-        <v>77.84263622562982</v>
+        <v>77.83661390817942</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -3925,16 +3925,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>160.4871936735591</v>
+        <v>160.4723596478491</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6672101271175629</v>
+        <v>0.6669977194837133</v>
       </c>
       <c r="D11" t="n">
-        <v>677.6144475300134</v>
+        <v>677.5499939306133</v>
       </c>
       <c r="E11" t="n">
-        <v>90.92374987648415</v>
+        <v>90.93186023637223</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -3949,13 +3949,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6672101271175629</v>
+        <v>0.6669977194837133</v>
       </c>
       <c r="D12" t="n">
-        <v>251.7238858439763</v>
+        <v>251.7237074905538</v>
       </c>
       <c r="E12" t="n">
-        <v>90.92672779924543</v>
+        <v>90.92457555746394</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -3967,16 +3967,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>42.87078683507758</v>
+        <v>42.86683601561606</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>180.1380681512834</v>
+        <v>180.1215602947844</v>
       </c>
       <c r="E13" t="n">
-        <v>73.37960888638902</v>
+        <v>73.3549876367405</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -3988,16 +3988,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>42.87078683507758</v>
+        <v>42.86683601561606</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>180.1380681512834</v>
+        <v>180.1215602947844</v>
       </c>
       <c r="E14" t="n">
-        <v>73.37960888638902</v>
+        <v>73.3549876367405</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -4009,16 +4009,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>102.8136209677554</v>
+        <v>102.8199885848094</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1120338794682059</v>
+        <v>0.1120589065148448</v>
       </c>
       <c r="D15" t="n">
-        <v>431.0400395695035</v>
+        <v>431.066923172864</v>
       </c>
       <c r="E15" t="n">
-        <v>60.09388610654995</v>
+        <v>60.09201980439628</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -4030,16 +4030,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>67.21512732139246</v>
+        <v>67.21617636971445</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1120362447307952</v>
+        <v>0.1120627480008885</v>
       </c>
       <c r="D16" t="n">
-        <v>281.464784265119</v>
+        <v>281.4692000060168</v>
       </c>
       <c r="E16" t="n">
-        <v>60.09441048433656</v>
+        <v>60.09321719149607</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -4060,7 +4060,7 @@
         <v>192.602</v>
       </c>
       <c r="E17" t="n">
-        <v>629.9209910501309</v>
+        <v>629.9278610817611</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>192.602</v>
       </c>
       <c r="E18" t="n">
-        <v>79.35172279626774</v>
+        <v>79.35258822042928</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -4093,16 +4093,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>84.68410156470469</v>
+        <v>84.68758451197498</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>354.5723332514186</v>
+        <v>354.5869163516392</v>
       </c>
       <c r="E19" t="n">
-        <v>79.35172279626774</v>
+        <v>79.35258822042928</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -4114,16 +4114,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>116.0577795366066</v>
+        <v>116.056909257353</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1750921131254041</v>
+        <v>0.1750833928924935</v>
       </c>
       <c r="D20" t="n">
-        <v>2697.216876050063</v>
+        <v>2697.282733683695</v>
       </c>
       <c r="E20" t="n">
-        <v>13.90595890423653</v>
+        <v>13.89855597884343</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -4135,16 +4135,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>114.4807707805337</v>
+        <v>114.4792482013948</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1663375074691339</v>
+        <v>0.1663292232478688</v>
       </c>
       <c r="D21" t="n">
-        <v>480.3922497456741</v>
+        <v>480.3857959879207</v>
       </c>
       <c r="E21" t="n">
-        <v>13.90595890423653</v>
+        <v>13.89855597884343</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -4156,16 +4156,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>99.86962756376704</v>
+        <v>99.87553645487581</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>418.1541306094926</v>
+        <v>418.1788711365651</v>
       </c>
       <c r="E22" t="n">
-        <v>629.9209910501309</v>
+        <v>629.9278610817611</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -4186,7 +4186,7 @@
         <v>466.60274855267</v>
       </c>
       <c r="E23" t="n">
-        <v>629.9209910501309</v>
+        <v>629.9278610817611</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -4198,7 +4198,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>61.27401774652145</v>
+        <v>61.27445649657143</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -4207,7 +4207,7 @@
         <v>202.3831279625776</v>
       </c>
       <c r="E24" t="n">
-        <v>629.9209910501309</v>
+        <v>629.9278610817611</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -4219,16 +4219,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>104.2823967267036</v>
+        <v>104.2888214348713</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1179303994402167</v>
+        <v>0.1179567436998367</v>
       </c>
       <c r="D25" t="n">
-        <v>2642.344833049367</v>
+        <v>2642.44435564166</v>
       </c>
       <c r="E25" t="n">
-        <v>46.18861423388631</v>
+        <v>46.19458097709901</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -4240,19 +4240,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>500.6660139150524</v>
+        <v>500.667354997579</v>
       </c>
       <c r="C26" t="n">
-        <v>7.151875887412284</v>
+        <v>7.149071805883693</v>
       </c>
       <c r="D26" t="n">
-        <v>3411.218516165521</v>
+        <v>3411.254881532883</v>
       </c>
       <c r="E26" t="n">
-        <v>57.99237222475507</v>
+        <v>57.96884374429705</v>
       </c>
       <c r="F26" t="n">
-        <v>6.790371504800642</v>
+        <v>6.790589293216885</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -4265,19 +4265,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>193.0845940500762</v>
+        <v>193.0953466554116</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5104098760110222</v>
+        <v>0.5102427418956207</v>
       </c>
       <c r="D27" t="n">
-        <v>2840.385981805057</v>
+        <v>2840.418494013033</v>
       </c>
       <c r="E27" t="n">
-        <v>57.99237222475507</v>
+        <v>57.96884374429705</v>
       </c>
       <c r="F27" t="n">
-        <v>7.018877320108766</v>
+        <v>7.019093784076323</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -4290,19 +4290,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>173.9959802996721</v>
+        <v>173.983775744702</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5777913087865149</v>
+        <v>0.5776146044356305</v>
       </c>
       <c r="D28" t="n">
-        <v>2793.814594955338</v>
+        <v>2793.798895510325</v>
       </c>
       <c r="E28" t="n">
-        <v>15.38723666163395</v>
+        <v>15.38614389244346</v>
       </c>
       <c r="F28" t="n">
-        <v>6.861603769515681</v>
+        <v>6.861704106287363</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -4315,19 +4315,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>188.589212761023</v>
+        <v>188.593880185359</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5104098760110222</v>
+        <v>0.5102427418956207</v>
       </c>
       <c r="D29" t="n">
-        <v>2830.620258574961</v>
+        <v>2830.640074387053</v>
       </c>
       <c r="E29" t="n">
-        <v>73.37960888638902</v>
+        <v>73.3549876367405</v>
       </c>
       <c r="F29" t="n">
-        <v>6.997829638686847</v>
+        <v>6.998019088152639</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -4340,22 +4340,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>125.661310396824</v>
+        <v>125.6502520020647</v>
       </c>
       <c r="C30" t="n">
-        <v>0.237003601201226</v>
+        <v>0.2369232646211138</v>
       </c>
       <c r="D30" t="n">
-        <v>2708.829286963924</v>
+        <v>2708.845611921781</v>
       </c>
       <c r="E30" t="n">
-        <v>73.37960888638902</v>
+        <v>73.3549876367405</v>
       </c>
       <c r="F30" t="n">
-        <v>7.057212292347122</v>
+        <v>7.057405083489218</v>
       </c>
       <c r="G30" t="n">
-        <v>99.76201418039706</v>
+        <v>99.76347804671903</v>
       </c>
     </row>
     <row r="31">
@@ -4365,22 +4365,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>109.8229479211673</v>
+        <v>109.8128646326139</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1425280598794433</v>
+        <v>0.1424797395628646</v>
       </c>
       <c r="D31" t="n">
-        <v>2637.059899953102</v>
+        <v>2637.076700766809</v>
       </c>
       <c r="E31" t="n">
-        <v>73.37960888638902</v>
+        <v>73.3549876367405</v>
       </c>
       <c r="F31" t="n">
-        <v>7.099764798489513</v>
+        <v>7.099958431940361</v>
       </c>
       <c r="G31" t="n">
-        <v>97.59061279363236</v>
+        <v>97.59208304648701</v>
       </c>
     </row>
     <row r="32">
@@ -4390,22 +4390,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>109.8229479211673</v>
+        <v>109.8128646326139</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1425280598794433</v>
+        <v>0.1424797395628646</v>
       </c>
       <c r="D32" t="n">
-        <v>2637.059899953102</v>
+        <v>2637.076700766809</v>
       </c>
       <c r="E32" t="n">
-        <v>73.37960888638902</v>
+        <v>73.3549876367405</v>
       </c>
       <c r="F32" t="n">
-        <v>7.099764798489513</v>
+        <v>7.099958431940361</v>
       </c>
       <c r="G32" t="n">
-        <v>97.59061279363236</v>
+        <v>97.59208304648701</v>
       </c>
     </row>
     <row r="33">
@@ -4415,22 +4415,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>42.44843855646599</v>
+        <v>42.44159968899601</v>
       </c>
       <c r="C33" t="n">
-        <v>0.008404985317867935</v>
+        <v>0.008401975213402661</v>
       </c>
       <c r="D33" t="n">
-        <v>2294.311517883021</v>
+        <v>2294.306755955206</v>
       </c>
       <c r="E33" t="n">
-        <v>73.37960888638902</v>
+        <v>73.3549876367405</v>
       </c>
       <c r="F33" t="n">
-        <v>7.311400088058083</v>
+        <v>7.311530338384357</v>
       </c>
       <c r="G33" t="n">
-        <v>88.18511753233423</v>
+        <v>88.18550793428874</v>
       </c>
     </row>
     <row r="34">
@@ -4440,16 +4440,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>42.44843855582684</v>
+        <v>42.44159968771964</v>
       </c>
       <c r="C34" t="n">
-        <v>0.008404985317867935</v>
+        <v>0.008401975213402661</v>
       </c>
       <c r="D34" t="n">
-        <v>177.7678663225661</v>
+        <v>177.7392776764838</v>
       </c>
       <c r="E34" t="n">
-        <v>73.37960888638902</v>
+        <v>73.3549876367405</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>42.87078683507758</v>
+        <v>42.86683601561606</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>180.1380681512834</v>
+        <v>180.1215602947844</v>
       </c>
       <c r="E35" t="n">
-        <v>73.37960888638902</v>
+        <v>73.3549876367405</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -4566,16 +4566,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>496.5183587647314</v>
+        <v>496.5318908036865</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3460.561772676899</v>
+        <v>3460.591613212948</v>
       </c>
       <c r="E40" t="n">
-        <v>7.232540890534362</v>
+        <v>7.232602101152307</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -4608,16 +4608,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>511.5183587647314</v>
+        <v>511.5318908036865</v>
       </c>
       <c r="C42" t="n">
-        <v>6.758448138995359</v>
+        <v>6.755908374846522</v>
       </c>
       <c r="D42" t="n">
-        <v>3441.985978161751</v>
+        <v>3442.046831326827</v>
       </c>
       <c r="E42" t="n">
-        <v>8.515502462794998</v>
+        <v>8.514916952127825</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -4719,7 +4719,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>8.52030399634511</v>
+        <v>8.520376105591444</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -4762,7 +4762,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>8.52030399634511</v>
+        <v>8.520376105591444</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -4805,7 +4805,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>8.52030399634511</v>
+        <v>8.520376105591444</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -4848,7 +4848,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>8.52030399634511</v>
+        <v>8.520376105591444</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -4891,7 +4891,7 @@
         <v>1348.041621038311</v>
       </c>
       <c r="E6" t="n">
-        <v>3.389001204531871</v>
+        <v>3.389029886410216</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -4906,10 +4906,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944177</v>
+        <v>0.05094889585944181</v>
       </c>
       <c r="K6" t="n">
-        <v>0.09767435453489637</v>
+        <v>0.0976743545348964</v>
       </c>
       <c r="L6" t="n">
         <v>0.6806996788173056</v>
